--- a/media/list.xlsx
+++ b/media/list.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,41 +449,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Смирнова</t>
+          <t>Иванов</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ольга</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Анатольевна</t>
+          <t>Иванович</t>
         </is>
       </c>
       <c r="D2" s="1" t="n">
-        <v>36872</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Акулова</t>
+          <t>Петров</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Валентина</t>
+          <t>Петр</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Владимировна</t>
+          <t>Петрович</t>
         </is>
       </c>
       <c r="D3" s="1" t="n">
         <v>44231</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Сидор</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Сидорович</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Смирнова</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Анна</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Александровна</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>43868</v>
       </c>
     </row>
   </sheetData>

--- a/media/list.xlsx
+++ b/media/list.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Movies" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Students" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,11 @@
           <t>ДАТА РОЖДЕНИЯ</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ПОЛ</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -463,7 +468,12 @@
         </is>
       </c>
       <c r="D2" s="1" t="n">
-        <v>43862</v>
+        <v>44230</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -483,47 +493,37 @@
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>44231</v>
+        <v>36872</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Сидоров</t>
+          <t>Смирнова</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Сидор</t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Сидорович</t>
+          <t>Александровна</t>
         </is>
       </c>
       <c r="D4" s="1" t="n">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Смирнова</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Анна</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Александровна</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>43868</v>
+        <v>44231</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/media/list.xlsx
+++ b/media/list.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,6 +526,31 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Смирнов</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Алексеевич</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>44234</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/media/list.xlsx
+++ b/media/list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Students" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Students" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -539,7 +539,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Алексеевич</t>
+          <t>Алексеивич</t>
         </is>
       </c>
       <c r="D5" s="1" t="n">

--- a/media/list.xlsx
+++ b/media/list.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -48,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -416,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,106 +448,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Иван</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Иванович</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>44230</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Петров</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Петр</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Петрович</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>36872</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Смирнова</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Анна</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Александровна</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>44231</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ж</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Смирнов</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Иван</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Алексеивич</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>44234</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
